--- a/Civilworks cost/Expenditure_2016_17/Input output/CW_EXP.xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/CW_EXP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="civil_expenditure_list" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>2017-06-21</t>
+  </si>
+  <si>
+    <t>2017-06-15</t>
+  </si>
+  <si>
+    <t>2017-06-18</t>
   </si>
 </sst>
 </file>
@@ -419,19 +425,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +463,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1085823</v>
       </c>
@@ -471,7 +478,7 @@
         <v>9871121</v>
       </c>
       <c r="F2" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -480,7 +487,8 @@
         <v>9672</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1138308</v>
       </c>
@@ -488,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>8442449</v>
+        <v>8347590</v>
       </c>
       <c r="E3" s="2">
-        <v>9580757</v>
+        <v>9485898</v>
       </c>
       <c r="F3" s="2">
         <v>681</v>
@@ -503,18 +511,19 @@
         <v>9695</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
       <c r="B4" s="2">
-        <v>892408.89</v>
+        <v>1181305.1100000001</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>13134764.83</v>
+        <v>8662906.620000001</v>
       </c>
       <c r="E4" s="2">
-        <v>14027173.720000001</v>
+        <v>9844211.7300000004</v>
       </c>
       <c r="F4" s="2">
         <v>680</v>
@@ -526,7 +535,8 @@
         <v>9698</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>5950.62</v>
       </c>
@@ -549,18 +559,19 @@
         <v>9698</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="2">
-        <v>335.49</v>
+        <v>610134.27</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>2460.3000000000002</v>
+        <v>4474319.3499999996</v>
       </c>
       <c r="E6" s="2">
-        <v>2795.79</v>
+        <v>5084453.6199999992</v>
       </c>
       <c r="F6" s="2">
         <v>685</v>
@@ -572,18 +583,19 @@
         <v>9698</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="2">
-        <v>1823605.23</v>
+        <v>289036.67</v>
       </c>
       <c r="C7" s="2">
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>12184786.050000001</v>
+        <v>1943627.95</v>
       </c>
       <c r="E7" s="2">
-        <v>14008391.279999999</v>
+        <v>2232664.62</v>
       </c>
       <c r="F7" s="2">
         <v>680</v>
@@ -595,18 +607,19 @@
         <v>9722</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
-        <v>30175.77</v>
+        <v>1564744.61</v>
       </c>
       <c r="C8" s="2">
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>221288.95999999999</v>
+        <v>10462446.779999999</v>
       </c>
       <c r="E8" s="2">
-        <v>251464.73</v>
+        <v>12027191.390000001</v>
       </c>
       <c r="F8" s="2">
         <v>685</v>
@@ -618,7 +631,8 @@
         <v>9722</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="2">
         <v>497358</v>
       </c>
@@ -641,21 +655,22 @@
         <v>9744</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="2">
-        <v>1113665</v>
+        <v>767755.74</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>8166875</v>
+        <v>5630207.6500000004</v>
       </c>
       <c r="E10" s="2">
-        <v>9280540</v>
+        <v>6397963.3900000006</v>
       </c>
       <c r="F10" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -664,44 +679,46 @@
         <v>9745</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="2">
+        <v>345909.26</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2536667.35</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2882576.61</v>
+      </c>
+      <c r="F11" s="2">
+        <v>685</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="2">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2">
         <v>495956.88</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
         <v>3637016.47</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>4132973.35</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="2">
         <v>680</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="2">
-        <v>9748</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>743444.12</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5451922.5300000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6195366.6500000004</v>
-      </c>
-      <c r="F12" s="2">
-        <v>681</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>14</v>
@@ -710,95 +727,171 @@
         <v>9748</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="2">
-        <v>332188.81</v>
+        <v>743444.12</v>
       </c>
       <c r="C13" s="2">
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>2223109.7400000002</v>
+        <v>5451922.5300000003</v>
       </c>
       <c r="E13" s="2">
-        <v>2555298.5499999998</v>
+        <v>6195366.6500000004</v>
       </c>
       <c r="F13" s="2">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2">
-        <v>9781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="2">
-        <v>116154</v>
+        <v>468893.18</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>851797</v>
+        <v>3793772.16</v>
       </c>
       <c r="E14" s="2">
-        <v>967951</v>
+        <v>4262665.34</v>
       </c>
       <c r="F14" s="2">
         <v>685</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H14" s="2">
-        <v>9788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
       <c r="B15" s="2">
-        <v>329659.21999999997</v>
+        <v>1624908.62</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>2417500.75</v>
+        <v>10874388.380000001</v>
       </c>
       <c r="E15" s="2">
-        <v>2747159.97</v>
+        <v>12499297</v>
       </c>
       <c r="F15" s="2">
         <v>680</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" s="2">
-        <v>9789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="2">
-        <v>304835.78000000003</v>
+        <v>332188.79999999999</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>2235462.2400000002</v>
+        <v>2223109.7599999998</v>
       </c>
       <c r="E16" s="2">
-        <v>2540298.02</v>
+        <v>2555298.56</v>
       </c>
       <c r="F16" s="2">
         <v>685</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2">
+        <v>116154</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>851797</v>
+      </c>
+      <c r="E17" s="2">
+        <v>967951</v>
+      </c>
+      <c r="F17" s="2">
+        <v>681</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <v>253633.08</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1859975.72</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2113608.7999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>680</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H18" s="2">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <v>380861.93</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2792987.28</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3173849.21</v>
+      </c>
+      <c r="F19" s="2">
+        <v>685</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2">
         <v>9789</v>
       </c>
     </row>

--- a/Civilworks cost/Expenditure_2016_17/Input output/CW_EXP.xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/CW_EXP.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="civil_expenditure_list" sheetId="3" r:id="rId1"/>
+    <sheet name="civil_expenditure_list" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -75,10 +75,13 @@
     <t>2017-06-21</t>
   </si>
   <si>
-    <t>2017-06-15</t>
-  </si>
-  <si>
     <t>2017-06-18</t>
+  </si>
+  <si>
+    <t>2017-06-13</t>
+  </si>
+  <si>
+    <t>2016-09-26</t>
   </si>
 </sst>
 </file>
@@ -425,16 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -464,7 +471,6 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
       <c r="B2" s="2">
         <v>1085823</v>
       </c>
@@ -488,7 +494,6 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
       <c r="B3" s="2">
         <v>1138308</v>
       </c>
@@ -512,7 +517,6 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
       <c r="B4" s="2">
         <v>1181305.1100000001</v>
       </c>
@@ -536,7 +540,6 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
       <c r="B5" s="2">
         <v>5950.62</v>
       </c>
@@ -560,7 +563,6 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
       <c r="B6" s="2">
         <v>610134.27</v>
       </c>
@@ -584,45 +586,43 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
       <c r="B7" s="2">
+        <v>360000</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2640000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>660</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>289036.67</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>1943627.95</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>2232664.62</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="2">
         <v>680</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2">
-        <v>9722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
-        <v>1564744.61</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>10462446.779999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>12027191.390000001</v>
-      </c>
-      <c r="F8" s="2">
-        <v>685</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -632,69 +632,66 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
       <c r="B9" s="2">
-        <v>497358</v>
+        <v>1564744.61</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>3647296</v>
+        <v>10462446.779999999</v>
       </c>
       <c r="E9" s="2">
-        <v>4144654</v>
+        <v>12027191.390000001</v>
       </c>
       <c r="F9" s="2">
         <v>685</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>497358</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3647296</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4144654</v>
+      </c>
+      <c r="F10" s="2">
+        <v>685</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>9744</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>767755.74</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
         <v>5630207.6500000004</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="2">
         <v>6397963.3900000006</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="2">
         <v>680</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2">
-        <v>345909.26</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2536667.35</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2882576.61</v>
-      </c>
-      <c r="F11" s="2">
-        <v>685</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>13</v>
@@ -704,45 +701,43 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
       <c r="B12" s="2">
+        <v>345909.26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2536667.35</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2882576.61</v>
+      </c>
+      <c r="F12" s="2">
+        <v>685</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="2">
+        <v>9745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
         <v>495956.88</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
         <v>3637016.47</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>4132973.35</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>680</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="2">
-        <v>9748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2">
-        <v>743444.12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>5451922.5300000003</v>
-      </c>
-      <c r="E13" s="2">
-        <v>6195366.6500000004</v>
-      </c>
-      <c r="F13" s="2">
-        <v>681</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>14</v>
@@ -752,147 +747,187 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
       <c r="B14" s="2">
+        <v>743444.12</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5451922.5300000003</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6195366.6500000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>681</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2">
+        <v>9748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>468893.18</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
         <v>3793772.16</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <v>4262665.34</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>685</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2">
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1624908.62</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10874388.380000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>12499297</v>
+      </c>
+      <c r="F16" s="2">
+        <v>680</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="2">
-        <v>9774</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2">
-        <v>1624908.62</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10874388.380000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>12499297</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="H16" s="2">
+        <v>9775</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>332188.79999999999</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2223109.7599999998</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2555298.56</v>
+      </c>
+      <c r="F17" s="2">
+        <v>685</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9781</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>116154</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>851797</v>
+      </c>
+      <c r="E18" s="2">
+        <v>967951</v>
+      </c>
+      <c r="F18" s="2">
+        <v>681</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>253633.08</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1859975.72</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2113608.7999999998</v>
+      </c>
+      <c r="F19" s="2">
         <v>680</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="2">
-        <v>9775</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2">
-        <v>332188.79999999999</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2223109.7599999998</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2555298.56</v>
-      </c>
-      <c r="F16" s="2">
-        <v>685</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="2">
-        <v>9781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2">
-        <v>116154</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>851797</v>
-      </c>
-      <c r="E17" s="2">
-        <v>967951</v>
-      </c>
-      <c r="F17" s="2">
-        <v>681</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="2">
-        <v>9788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <v>253633.08</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1859975.72</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2113608.7999999998</v>
-      </c>
-      <c r="F18" s="2">
-        <v>680</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2">
-        <v>9789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2">
-        <v>380861.93</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2792987.28</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3173849.21</v>
-      </c>
-      <c r="F19" s="2">
-        <v>685</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="2">
         <v>9789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>380861.93</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2792987.28</v>
+      </c>
+      <c r="E20" s="2">
+        <v>3173849.21</v>
+      </c>
+      <c r="F20" s="2">
+        <v>685</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9789</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>356392</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2613539</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2969931</v>
+      </c>
+      <c r="F21" s="2">
+        <v>660</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2">
+        <v>9790</v>
       </c>
     </row>
   </sheetData>
